--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail3 Features.xlsx
@@ -5017,7 +5017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5028,29 +5028,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5071,115 +5069,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5196,72 +5184,66 @@
         <v>4.396402779316103e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4059674594878618</v>
+        <v>1.663883830230935e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.184277737912415</v>
+        <v>8.56730237002661e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.663883830230935e-06</v>
+        <v>-0.05723628622511687</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.56730237002661e-06</v>
+        <v>0.1157962703730017</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05723628622511687</v>
+        <v>0.01666510786630438</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1157962703730017</v>
+        <v>1.68552265910059</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01666510786630438</v>
+        <v>1.553845411665568</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.62066771898524</v>
+        <v>3.875413849873316</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.553845411665568</v>
+        <v>2.825548460034214e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.875413849873316</v>
+        <v>19210930.9639747</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.825548460034214e-14</v>
+        <v>5.824047109593514e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>19210930.9639747</v>
+        <v>10.42796543107957</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.824047109593514e-06</v>
+        <v>0.0001537064414592303</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10.42796543107957</v>
+        <v>8.591867443162121</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001537064414592303</v>
+        <v>1.31476375192274</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.591867443162121</v>
+        <v>0.01134663812264513</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.31476375192274</v>
+        <v>2.827693041412441</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01134663812264513</v>
+        <v>0.9522463983052213</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.827693041412441</v>
+        <v>1.774222104111169</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9522463983052213</v>
+        <v>18</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.774222104111169</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1717058330712277</v>
       </c>
     </row>
@@ -5276,72 +5258,66 @@
         <v>4.212228050576817e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3733942021720721</v>
+        <v>1.46563020747096e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.367577251872609</v>
+        <v>8.54409480286516e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.46563020747096e-06</v>
+        <v>-0.05094555128474203</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.54409480286516e-06</v>
+        <v>0.1089456701329676</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05094555128474203</v>
+        <v>0.01445551020780354</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1089456701329676</v>
+        <v>1.680036523795708</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01445551020780354</v>
+        <v>1.565044823117161</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.611260155168816</v>
+        <v>3.79578618103972</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.565044823117161</v>
+        <v>2.945340121468817e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.79578618103972</v>
+        <v>18478083.28611366</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.945340121468817e-14</v>
+        <v>6.054333218806745e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>18478083.28611366</v>
+        <v>10.05655640804905</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.054333218806745e-06</v>
+        <v>0.0001743666685773699</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10.05655640804905</v>
+        <v>10.03250367601224</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001743666685773699</v>
+        <v>1.228297993854933</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.03250367601224</v>
+        <v>0.0175502022282518</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.228297993854933</v>
+        <v>2.607554371762805</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0175502022282518</v>
+        <v>0.952880614901133</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.607554371762805</v>
+        <v>1.786104666755312</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.952880614901133</v>
+        <v>18</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.786104666755312</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1681806218199004</v>
       </c>
     </row>
@@ -5356,72 +5332,66 @@
         <v>4.067814888398602e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3799883807483129</v>
+        <v>1.341360204987399e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.441003446762122</v>
+        <v>8.524060197053193e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.341360204987399e-06</v>
+        <v>-0.04615492731818956</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.524060197053193e-06</v>
+        <v>0.1091764251956463</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04615492731818956</v>
+        <v>0.01404587240494398</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1091764251956463</v>
+        <v>1.686404783450853</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01404587240494398</v>
+        <v>1.529356893931345</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.613742960073101</v>
+        <v>3.910251182200223</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.529356893931345</v>
+        <v>2.775425806546582e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.910251182200223</v>
+        <v>20316579.2104342</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.775425806546582e-14</v>
+        <v>5.561252873807046e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>20316579.2104342</v>
+        <v>11.45594166862424</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.561252873807046e-06</v>
+        <v>0.0001938746094482117</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>11.45594166862424</v>
+        <v>10.96023375106163</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001938746094482117</v>
+        <v>1.162882709785651</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.96023375106163</v>
+        <v>0.02328952167612308</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.162882709785651</v>
+        <v>2.413463811100338</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02328952167612308</v>
+        <v>0.954096809255398</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.413463811100338</v>
+        <v>1.771006385646156</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.954096809255398</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.771006385646156</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1642223294286162</v>
       </c>
     </row>
@@ -5436,72 +5406,66 @@
         <v>3.941354601133642e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4039870564824633</v>
+        <v>1.256213395553475e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.464297942277301</v>
+        <v>8.506330299331671e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.256213395553475e-06</v>
+        <v>-0.04249534122740685</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.506330299331671e-06</v>
+        <v>0.111904720141301</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04249534122740685</v>
+        <v>0.01432557352578498</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.111904720141301</v>
+        <v>1.712235004167803</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01432557352578498</v>
+        <v>1.741277411454351</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.634692312156863</v>
+        <v>4.001378784774005</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.741277411454351</v>
+        <v>2.647251704261187e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.001378784774005</v>
+        <v>21295929.44772736</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.647251704261187e-14</v>
+        <v>5.373248977651061e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>21295929.44772736</v>
+        <v>12.00572621493231</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.373248977651061e-06</v>
+        <v>0.0001924966887542287</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>12.00572621493231</v>
+        <v>9.911275884919906</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001924966887542287</v>
+        <v>1.250463133469327</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.911275884919906</v>
+        <v>0.01890960223600038</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.250463133469327</v>
+        <v>2.538198339410591</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01890960223600038</v>
+        <v>0.9564195661795464</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.538198339410591</v>
+        <v>1.736555581146464</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9564195661795464</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.736555581146464</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1583876210010571</v>
       </c>
     </row>
@@ -5516,72 +5480,66 @@
         <v>3.82892767468198e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4400859694362211</v>
+        <v>1.172697582152492e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.449703225333251</v>
+        <v>8.490460038850206e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.172697582152492e-06</v>
+        <v>-0.03926941833809794</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.490460038850206e-06</v>
+        <v>0.113546713315212</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03926941833809794</v>
+        <v>0.01443182921759087</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.113546713315212</v>
+        <v>1.749119511884188</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01443182921759087</v>
+        <v>1.533695851712904</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.673481117983727</v>
+        <v>4.310755960610243</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.533695851712904</v>
+        <v>2.280907599457078e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.310755960610243</v>
+        <v>24419791.3691142</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.280907599457078e-14</v>
+        <v>4.755668632740338e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>24419791.3691142</v>
+        <v>13.60164985310128</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.755668632740338e-06</v>
+        <v>0.0001811572997298315</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>13.60164985310128</v>
+        <v>9.38091700290351</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001811572997298315</v>
+        <v>1.285370471099885</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.38091700290351</v>
+        <v>0.01594213291908581</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.285370471099885</v>
+        <v>2.617123593106256</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01594213291908581</v>
+        <v>0.9581043920585154</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.617123593106256</v>
+        <v>1.70659442023603</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9581043920585154</v>
+        <v>22</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.70659442023603</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1714406238116181</v>
       </c>
     </row>
@@ -5596,72 +5554,66 @@
         <v>3.733335902507059e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4890305199411124</v>
+        <v>1.106760921483982e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.39585834531264</v>
+        <v>8.476242120750696e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.106760921483982e-06</v>
+        <v>-0.03589297525796616</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.476242120750696e-06</v>
+        <v>0.1139002886483668</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03589297525796616</v>
+        <v>0.01425778990892724</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1139002886483668</v>
+        <v>1.736130127114414</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01425778990892724</v>
+        <v>1.619448372590371</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.661010489088925</v>
+        <v>4.077307459675622</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.619448372590371</v>
+        <v>1.471466485582055e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.077307459675622</v>
+        <v>37848085.89865808</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.471466485582055e-14</v>
+        <v>3.044460510087353e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>37848085.89865808</v>
+        <v>21.07842788858632</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.044460510087353e-06</v>
+        <v>0.0001763337817646038</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>21.07842788858632</v>
+        <v>9.589677771353461</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001763337817646038</v>
+        <v>1.276002538606874</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.589677771353461</v>
+        <v>0.01621599308933007</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.276002538606874</v>
+        <v>2.624279671627995</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01621599308933007</v>
+        <v>0.9577592092688386</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.624279671627995</v>
+        <v>1.702864613433664</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9577592092688386</v>
+        <v>24</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.702864613433664</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1819629636743085</v>
       </c>
     </row>
@@ -5676,72 +5628,66 @@
         <v>3.656907673857276e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.5500665795883003</v>
+        <v>1.106760921483982e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.306872452002954</v>
+        <v>8.463605842854359e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.106760921483982e-06</v>
+        <v>-0.03272261277555119</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8.463605842854359e-06</v>
+        <v>0.112680977427234</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03272261277555119</v>
+        <v>0.01376313947919754</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.112680977427234</v>
+        <v>1.729378179994868</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01376313947919754</v>
+        <v>1.749812044083379</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.651092362915784</v>
+        <v>4.377473406479943</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.749812044083379</v>
+        <v>2.0782408534953e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.377473406479943</v>
+        <v>26934722.82099148</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.0782408534953e-14</v>
+        <v>4.27372349158688e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>26934722.82099148</v>
+        <v>15.07720705999475</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.27372349158688e-06</v>
+        <v>0.0001739735865992361</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>15.07720705999475</v>
+        <v>9.176337071752565</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001739735865992361</v>
+        <v>1.298094466703043</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.176337071752565</v>
+        <v>0.01464947405277743</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.298094466703043</v>
+        <v>2.737539574859603</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01464947405277743</v>
+        <v>0.9538626128443408</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.737539574859603</v>
+        <v>1.725413917382315</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9538626128443408</v>
+        <v>24</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.725413917382315</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1710800144657074</v>
       </c>
     </row>
@@ -5756,72 +5702,66 @@
         <v>3.601367483527012e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6209232705922989</v>
+        <v>1.106760921483982e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.196107544613522</v>
+        <v>8.452103054111329e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.106760921483982e-06</v>
+        <v>-0.03099960643700583</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.452103054111329e-06</v>
+        <v>0.1114042873146623</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03099960643700583</v>
+        <v>0.01336683309739672</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1114042873146623</v>
+        <v>1.711920832714858</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01336683309739672</v>
+        <v>1.643881655941483</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.634688781492226</v>
+        <v>3.904738287100906</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.643881655941483</v>
+        <v>2.611915056461399e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.904738287100906</v>
+        <v>21515765.13768557</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.611915056461399e-14</v>
+        <v>5.306918138231019e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>21515765.13768557</v>
+        <v>12.09129003634507</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.306918138231019e-06</v>
+        <v>0.0001566075741262459</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>12.09129003634507</v>
+        <v>10.01094105947449</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001566075741262459</v>
+        <v>1.178053078370235</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.01094105947449</v>
+        <v>0.01569504521526681</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.178053078370235</v>
+        <v>2.867668677552944</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01569504521526681</v>
+        <v>0.9532682257496231</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.867668677552944</v>
+        <v>1.72174442243167</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9532682257496231</v>
+        <v>19</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.72174442243167</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.184911082525044</v>
       </c>
     </row>
@@ -5836,72 +5776,66 @@
         <v>3.565448433882735e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6967090116922612</v>
+        <v>1.106760921483982e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.079256079952918</v>
+        <v>8.441104988076859e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.106760921483982e-06</v>
+        <v>-0.0306539081736369</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>8.441104988076859e-06</v>
+        <v>0.1115629582007727</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0306539081736369</v>
+        <v>0.01338186421687978</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1115629582007727</v>
+        <v>1.701644211377789</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01338186421687978</v>
+        <v>1.595001323966177</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.615890928355028</v>
+        <v>3.968034650084611</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.595001323966177</v>
+        <v>2.529251398547367e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.968034650084611</v>
+        <v>21619457.73622468</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.529251398547367e-14</v>
+        <v>5.231696669768091e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>21619457.73622468</v>
+        <v>11.82174513573031</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.231696669768091e-06</v>
+        <v>0.0001294058217796381</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>11.82174513573031</v>
+        <v>11.15019905726562</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001294058217796381</v>
+        <v>1.101556955159029</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.15019905726562</v>
+        <v>0.01608862971279616</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.101556955159029</v>
+        <v>2.985803411065699</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01608862971279616</v>
+        <v>0.9532454780638695</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.985803411065699</v>
+        <v>1.766603608782244</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9532454780638695</v>
+        <v>19</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.766603608782244</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2147842705513385</v>
       </c>
     </row>
@@ -5916,72 +5850,66 @@
         <v>3.545527244759411e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7720088202144425</v>
+        <v>1.106760921483982e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.96403788224137</v>
+        <v>8.430091420702399e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.106760921483982e-06</v>
+        <v>-0.03157713881100731</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.430091420702399e-06</v>
+        <v>0.1130014715969651</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03157713881100731</v>
+        <v>0.01376390625971643</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1130014715969651</v>
+        <v>1.699694533257026</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01376390625971643</v>
+        <v>1.58545167180886</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.615029042187012</v>
+        <v>4.169248937832846</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.58545167180886</v>
+        <v>2.291011435776049e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.169248937832846</v>
+        <v>23793298.61868261</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.291011435776049e-14</v>
+        <v>4.761033438734909e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>23793298.61868261</v>
+        <v>12.96989820564177</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.761033438734909e-06</v>
+        <v>0.0001238675310033246</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>12.96989820564177</v>
+        <v>9.585023568413837</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001238675310033246</v>
+        <v>1.414463604276932</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.585023568413837</v>
+        <v>0.01138004164275552</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.414463604276932</v>
+        <v>3.262866399107432</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01138004164275552</v>
+        <v>0.9535136104410872</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.262866399107432</v>
+        <v>1.755245959265264</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9535136104410872</v>
+        <v>24</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.755245959265264</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.208776555221535</v>
       </c>
     </row>
@@ -5996,72 +5924,66 @@
         <v>3.536746240480218e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.8439431790372323</v>
+        <v>1.106760921483982e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.8473960507156368</v>
+        <v>8.418564504781657e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.106760921483982e-06</v>
+        <v>-0.0337418678316606</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>8.418564504781657e-06</v>
+        <v>0.1147215722726787</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0337418678316606</v>
+        <v>0.01429781091883299</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1147215722726787</v>
+        <v>1.707558587969854</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01429781091883299</v>
+        <v>1.701102368932233</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.627202757226905</v>
+        <v>4.201975850567328</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.701102368932233</v>
+        <v>2.255463515688015e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.201975850567328</v>
+        <v>24395547.39053525</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.255463515688015e-14</v>
+        <v>4.660624676165835e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>24395547.39053525</v>
+        <v>13.42322719744199</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.660624676165835e-06</v>
+        <v>0.0001283923710105209</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>13.42322719744199</v>
+        <v>7.891349085201206</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001283923710105209</v>
+        <v>1.675020092100814</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.891349085201206</v>
+        <v>0.007995428242330486</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.675020092100814</v>
+        <v>3.286865872855482</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007995428242330486</v>
+        <v>0.953397076687469</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.286865872855482</v>
+        <v>1.728610958430142</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.953397076687469</v>
+        <v>19</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.728610958430142</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1967386092713023</v>
       </c>
     </row>
@@ -6076,72 +5998,66 @@
         <v>3.534150940394778e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.9120380794166476</v>
+        <v>1.123738018067389e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.7200498169583134</v>
+        <v>8.40609070578599e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.123738018067389e-06</v>
+        <v>-0.03705803437183212</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>8.40609070578599e-06</v>
+        <v>0.1155629882030418</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03705803437183212</v>
+        <v>0.01472623183393643</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1155629882030418</v>
+        <v>1.716750123884041</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01472623183393643</v>
+        <v>1.784090138470164</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.637039029750124</v>
+        <v>4.140213726561633</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.784090138470164</v>
+        <v>2.32325771917618e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.140213726561633</v>
+        <v>24086821.65658145</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.32325771917618e-14</v>
+        <v>4.7364936421917e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>24086821.65658145</v>
+        <v>13.47895994986823</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.7364936421917e-06</v>
+        <v>0.0001333061403779939</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>13.47895994986823</v>
+        <v>7.982743258552087</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001333061403779939</v>
+        <v>1.44957349361835</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.982743258552087</v>
+        <v>0.008494825808543648</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.44957349361835</v>
+        <v>3.162381572766281</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008494825808543648</v>
+        <v>0.9530306941131432</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.162381572766281</v>
+        <v>1.766029260870178</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9530306941131432</v>
+        <v>19</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.766029260870178</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.189069783568979</v>
       </c>
     </row>
@@ -6156,72 +6072,66 @@
         <v>3.530797615544242e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.9777248044329329</v>
+        <v>1.175378612734897e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.5677103111981534</v>
+        <v>8.392200235437901e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.175378612734897e-06</v>
+        <v>-0.04176194833130439</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>8.392200235437901e-06</v>
+        <v>0.1142794780234213</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04176194833130439</v>
+        <v>0.01480106289829849</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1142794780234213</v>
+        <v>1.728741604164066</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01480106289829849</v>
+        <v>1.734171867877289</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.6472167587972</v>
+        <v>4.126984654790983</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.734171867877289</v>
+        <v>2.338176021789959e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.126984654790983</v>
+        <v>24467579.42560697</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.338176021789959e-14</v>
+        <v>4.683395335028057e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>24467579.42560697</v>
+        <v>13.99778169248114</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.683395335028057e-06</v>
+        <v>0.0001352687472091885</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>13.99778169248114</v>
+        <v>9.580135306205792</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001352687472091885</v>
+        <v>1.17237346519138</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.580135306205792</v>
+        <v>0.01241482933359598</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.17237346519138</v>
+        <v>2.999655403255474</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01241482933359598</v>
+        <v>0.9545301563848797</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.999655403255474</v>
+        <v>1.758569260166043</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9545301563848797</v>
+        <v>19</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.758569260166043</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.193811856257301</v>
       </c>
     </row>
@@ -6236,72 +6146,66 @@
         <v>3.519150810464969e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.041460147251319</v>
+        <v>1.221130724833143e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.3789536056245626</v>
+        <v>8.376587651531321e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.221130724833143e-06</v>
+        <v>-0.04666457428988877</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>8.376587651531321e-06</v>
+        <v>0.1122440489891934</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04666457428988877</v>
+        <v>0.014774526839618</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1122440489891934</v>
+        <v>1.734502683509093</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.014774526839618</v>
+        <v>1.687054397506589</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.658543702440558</v>
+        <v>4.102598694951532</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.687054397506589</v>
+        <v>2.366054998546304e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.102598694951532</v>
+        <v>23940615.10431883</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.366054998546304e-14</v>
+        <v>4.806900346721179e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>23940615.10431883</v>
+        <v>13.56111642606693</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.806900346721179e-06</v>
+        <v>0.0001340997410040478</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>13.56111642606693</v>
+        <v>11.70320886179386</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001340997410040478</v>
+        <v>1.090029719853324</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.70320886179386</v>
+        <v>0.01836698412317163</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.090029719853324</v>
+        <v>2.940593348986953</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01836698412317163</v>
+        <v>0.9558504602845318</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.940593348986953</v>
+        <v>1.70214115432412</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9558504602845318</v>
+        <v>16</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.70214115432412</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2057213022904475</v>
       </c>
     </row>
@@ -6316,72 +6220,66 @@
         <v>3.497787090753736e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.100853056058155</v>
+        <v>1.26075700071025e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.1561322135471532</v>
+        <v>8.359509677695016e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.26075700071025e-06</v>
+        <v>-0.05046275248724841</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>8.359509677695016e-06</v>
+        <v>0.1116262796903438</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05046275248724841</v>
+        <v>0.01500622851372182</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1116262796903438</v>
+        <v>1.748613175282655</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01500622851372182</v>
+        <v>1.601181497602127</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.67520910399625</v>
+        <v>4.107760367839548</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.601181497602127</v>
+        <v>2.360112524912267e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.107760367839548</v>
+        <v>24085862.17679815</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.360112524912267e-14</v>
+        <v>4.794172489339698e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>24085862.17679815</v>
+        <v>13.69169144984792</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.794172489339698e-06</v>
+        <v>0.0001327033779455738</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>13.69169144984792</v>
+        <v>11.80245062835597</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001327033779455738</v>
+        <v>1.267818002796497</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.80245062835597</v>
+        <v>0.01848529401930021</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.267818002796497</v>
+        <v>3.172572435496221</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01848529401930021</v>
+        <v>0.95462889427866</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.172572435496221</v>
+        <v>1.723071564679975</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.95462889427866</v>
+        <v>12</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.723071564679975</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.216085118364844</v>
       </c>
     </row>
@@ -6396,72 +6294,66 @@
         <v>3.46845306268502e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.154529686726893</v>
+        <v>1.293839188844062e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.09571136918527401</v>
+        <v>8.341388805181852e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.293839188844062e-06</v>
+        <v>-0.0535401583750093</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8.341388805181852e-06</v>
+        <v>0.1117105435618318</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0535401583750093</v>
+        <v>0.01534535299224876</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1117105435618318</v>
+        <v>1.760315660763927</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01534535299224876</v>
+        <v>1.548669120967805</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.684554364587273</v>
+        <v>4.278707338241009</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.548669120967805</v>
+        <v>2.175292921844758e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.278707338241009</v>
+        <v>25828131.591597</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.175292921844758e-14</v>
+        <v>4.496844684822682e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>25828131.591597</v>
+        <v>14.51121335721467</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.496844684822682e-06</v>
+        <v>0.0001305302582902999</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>14.51121335721467</v>
+        <v>9.096036668198883</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001305302582902999</v>
+        <v>1.814942230124475</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.096036668198883</v>
+        <v>0.01079979724741774</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.814942230124475</v>
+        <v>3.362842613118829</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01079979724741774</v>
+        <v>0.9558068342445016</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.362842613118829</v>
+        <v>1.73287424877145</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9558068342445016</v>
+        <v>12</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.73287424877145</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2155285409959727</v>
       </c>
     </row>
@@ -6476,72 +6368,66 @@
         <v>3.427601383077878e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.20248143040394</v>
+        <v>1.319353331297833e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.3770238295806232</v>
+        <v>8.322325203210624e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.319353331297833e-06</v>
+        <v>-0.05715927576985513</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>8.322325203210624e-06</v>
+        <v>0.1111352583727494</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05715927576985513</v>
+        <v>0.01561717469740343</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1111352583727494</v>
+        <v>1.775521026802347</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01561717469740343</v>
+        <v>1.598387229514818</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.703599567670207</v>
+        <v>3.841574236116481</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.598387229514818</v>
+        <v>1.897205009324047e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.841574236116481</v>
+        <v>29697499.2789116</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.897205009324047e-14</v>
+        <v>3.915707267471222e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>29697499.2789116</v>
+        <v>16.73223762332817</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.915707267471222e-06</v>
+        <v>0.0001143359674844021</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>16.73223762332817</v>
+        <v>6.956653970238547</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001143359674844021</v>
+        <v>1.801444948382577</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>6.956653970238547</v>
+        <v>0.005533293086612104</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.801444948382577</v>
+        <v>3.347729285732792</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.005533293086612104</v>
+        <v>0.9555352508440242</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.347729285732792</v>
+        <v>1.701198790959901</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9555352508440242</v>
+        <v>12</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.701198790959901</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.223608675604693</v>
       </c>
     </row>
@@ -6556,72 +6442,66 @@
         <v>3.364788069468119e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.242436546321999</v>
+        <v>1.335891401647334e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.6860156315743202</v>
+        <v>8.302149432418096e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.335891401647334e-06</v>
+        <v>-0.06167722885823222</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>8.302149432418096e-06</v>
+        <v>0.1096635138479984</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06167722885823222</v>
+        <v>0.01582859526196129</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1096635138479984</v>
+        <v>1.77414999790403</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01582859526196129</v>
+        <v>1.664471552146912</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.707161078911286</v>
+        <v>3.722652248413157</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.664471552146912</v>
+        <v>1.948617744158478e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.722652248413157</v>
+        <v>27995990.62816906</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.948617744158478e-14</v>
+        <v>4.125940164865964e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>27995990.62816906</v>
+        <v>15.27278829691208</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.125940164865964e-06</v>
+        <v>0.0001308969210735632</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>15.27278829691208</v>
+        <v>8.783928854413926</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001308969210735632</v>
+        <v>1.224930550220546</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.783928854413926</v>
+        <v>0.01009966689905269</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.224930550220546</v>
+        <v>2.995811755920033</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01009966689905269</v>
+        <v>0.9541003897372773</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.995811755920033</v>
+        <v>1.733597233764792</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9541003897372773</v>
+        <v>12</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.733597233764792</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2187892198540038</v>
       </c>
     </row>
@@ -6636,72 +6516,66 @@
         <v>3.268557343097481e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.265913346881268</v>
+        <v>1.341468914016517e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.9980673649799972</v>
+        <v>8.280826756007636e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.341468914016517e-06</v>
+        <v>-0.06676822767214621</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8.280826756007636e-06</v>
+        <v>0.1085591854415837</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.06676822767214621</v>
+        <v>0.01624215405841868</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1085591854415837</v>
+        <v>1.792461460438648</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01624215405841868</v>
+        <v>1.719666645728614</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.736402002622327</v>
+        <v>3.812340124171509</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.719666645728614</v>
+        <v>2.020115103524692e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.812340124171509</v>
+        <v>26164564.14243307</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.020115103524692e-14</v>
+        <v>4.433566075210805e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>26164564.14243307</v>
+        <v>13.82939319941577</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.433566075210805e-06</v>
+        <v>0.0001663233450497748</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>13.82939319941577</v>
+        <v>11.1597924621932</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001663233450497748</v>
+        <v>1.10266915287994</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.1597924621932</v>
+        <v>0.02071407036010327</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.10266915287994</v>
+        <v>2.571994069881171</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.02071407036010327</v>
+        <v>0.9561271949230598</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.571994069881171</v>
+        <v>1.713745609265699</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9561271949230598</v>
+        <v>7</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.713745609265699</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2073156418053729</v>
       </c>
     </row>
@@ -6716,72 +6590,66 @@
         <v>3.133603596327462e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.259591968720331</v>
+        <v>1.341468914016517e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.256892784593312</v>
+        <v>8.258731537217163e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.341468914016517e-06</v>
+        <v>-0.07084607250289698</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>8.258731537217163e-06</v>
+        <v>0.1117328488680653</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.07084607250289698</v>
+        <v>0.01750381956965281</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1117328488680653</v>
+        <v>1.799090341071708</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01750381956965281</v>
+        <v>1.771985793302884</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.750634061007313</v>
+        <v>4.064916866724144</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.771985793302884</v>
+        <v>1.997782155554608e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.064916866724144</v>
+        <v>26165521.56818822</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.997782155554608e-14</v>
+        <v>4.440832766425479e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>26165521.56818822</v>
+        <v>13.67750625005701</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.440832766425479e-06</v>
+        <v>0.0002026340784268613</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>13.67750625005701</v>
+        <v>12.82574406122585</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0002026340784268613</v>
+        <v>1.012841228448496</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.82574406122585</v>
+        <v>0.03333324728405724</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.012841228448496</v>
+        <v>2.358889558694179</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.03333324728405724</v>
+        <v>0.9570054892185483</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.358889558694179</v>
+        <v>1.665480139075258</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9570054892185483</v>
+        <v>7</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.665480139075258</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2201427172974179</v>
       </c>
     </row>
@@ -6796,72 +6664,66 @@
         <v>2.967308741756972e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.218011862999572</v>
+        <v>1.329360004631354e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.41714135536534</v>
+        <v>8.236745768641017e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.329360004631354e-06</v>
+        <v>-0.0727711256769039</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>8.236745768641017e-06</v>
+        <v>0.1196094804952202</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.0727711256769039</v>
+        <v>0.01960108607298812</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1196094804952202</v>
+        <v>1.833833964276091</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01960108607298812</v>
+        <v>1.655010438751143</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.802649219486796</v>
+        <v>4.20035053638483</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.655010438751143</v>
+        <v>2.198048412941541e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.20035053638483</v>
+        <v>23586636.36546417</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.198048412941541e-14</v>
+        <v>4.985438575734652e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>23586636.36546417</v>
+        <v>12.22838987793976</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.985438575734652e-06</v>
+        <v>0.0002695460361299672</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>12.22838987793976</v>
+        <v>11.98556536308908</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002695460361299672</v>
+        <v>1.307410751112382</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.98556536308908</v>
+        <v>0.03872130618509298</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.307410751112382</v>
+        <v>2.332257701269364</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.03872130618509298</v>
+        <v>0.957442901720357</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.332257701269364</v>
+        <v>1.609104253181955</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.957442901720357</v>
+        <v>5</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.609104253181955</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2559417826617458</v>
       </c>
     </row>
@@ -6876,72 +6738,66 @@
         <v>2.78188836071203e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.14708023602161</v>
+        <v>1.283782696609242e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.478644059704182</v>
+        <v>8.215833305417679e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.283782696609242e-06</v>
+        <v>-0.0724226968256725</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>8.215833305417679e-06</v>
+        <v>0.1302640339834607</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0724226968256725</v>
+        <v>0.02221054609546584</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1302640339834607</v>
+        <v>1.792913542406342</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02221054609546584</v>
+        <v>1.522157013299083</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.753106821917571</v>
+        <v>5.242781344678098</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.522157013299083</v>
+        <v>1.390616342889518e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.242781344678098</v>
+        <v>37841529.18840043</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.390616342889518e-14</v>
+        <v>3.063807336756415e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>37841529.18840043</v>
+        <v>19.91336642041499</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.063807336756415e-06</v>
+        <v>0.0002949982563321693</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>19.91336642041499</v>
+        <v>11.50240795638796</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002949982563321693</v>
+        <v>1.456431760017854</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.50240795638796</v>
+        <v>0.03902985899792698</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.456431760017854</v>
+        <v>2.409396016801321</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.03902985899792698</v>
+        <v>0.9571253215146499</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.409396016801321</v>
+        <v>1.631774058263165</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9571253215146499</v>
+        <v>6</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.631774058263165</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.5018841738896473</v>
       </c>
     </row>
@@ -6956,72 +6812,66 @@
         <v>2.588937930349465e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.046220418861453</v>
+        <v>1.22696666338096e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.444062965779694</v>
+        <v>8.196418262943236e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.22696666338096e-06</v>
+        <v>-0.07244001179861195</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>8.196418262943236e-06</v>
+        <v>0.140683865152412</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.07244001179861195</v>
+        <v>0.02503676189168712</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.140683865152412</v>
+        <v>1.810927569916905</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02503676189168712</v>
+        <v>1.669357686627043</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.771653544371134</v>
+        <v>4.7822782719856</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.669357686627043</v>
+        <v>1.239682217577657e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.7822782719856</v>
+        <v>43115701.86264799</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.239682217577657e-14</v>
+        <v>2.705492445553202e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>43115701.86264799</v>
+        <v>23.04524300412242</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.705492445553202e-06</v>
+        <v>0.0002716449684633934</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>23.04524300412242</v>
+        <v>9.416321042647084</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002716449684633934</v>
+        <v>1.986323064517157</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.416321042647084</v>
+        <v>0.02408597212060816</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.986323064517157</v>
+        <v>2.870647915496147</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.02408597212060816</v>
+        <v>0.9592452012795666</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.870647915496147</v>
+        <v>1.721169604870859</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9592452012795666</v>
+        <v>6</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.721169604870859</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.4189890679290096</v>
       </c>
     </row>
@@ -7398,7 +7248,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.468067164045371</v>
+        <v>1.434314409207662</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.407023820911526</v>
@@ -7487,7 +7337,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.48973923458313</v>
+        <v>1.451220493302306</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.238239964952577</v>
@@ -7576,7 +7426,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.508120403588284</v>
+        <v>1.471923675786707</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.433626472339714</v>
@@ -7665,7 +7515,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.47247230753661</v>
+        <v>1.439629621285283</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.380178997097758</v>
@@ -7754,7 +7604,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.460771604266814</v>
+        <v>1.429100097558936</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.463809683717908</v>
@@ -7843,7 +7693,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.46736645755167</v>
+        <v>1.438740103908064</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.341727964260816</v>
@@ -7932,7 +7782,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.454686693963109</v>
+        <v>1.421027310876555</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.38123062234524</v>
@@ -8021,7 +7871,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.426526860458795</v>
+        <v>1.4036776140507</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.39810072083721</v>
@@ -8110,7 +7960,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.42767535420195</v>
+        <v>1.400445479069547</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.432918622752922</v>
@@ -8199,7 +8049,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.453950034400945</v>
+        <v>1.422472859974105</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.455790892935719</v>
@@ -8288,7 +8138,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.461386722252832</v>
+        <v>1.430606114106336</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.196113849314631</v>
@@ -8377,7 +8227,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.480942247385477</v>
+        <v>1.447993748762333</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.421957461007874</v>
@@ -8466,7 +8316,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.466331880804654</v>
+        <v>1.436970154470091</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.362253539304988</v>
@@ -8555,7 +8405,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.482488169438795</v>
+        <v>1.449176068708456</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.204896130331792</v>
@@ -8644,7 +8494,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.483770379777889</v>
+        <v>1.44889749199242</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.566139695351157</v>
@@ -8733,7 +8583,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.485353615183855</v>
+        <v>1.452879973865808</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.499695036741591</v>
@@ -8822,7 +8672,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.464966051341982</v>
+        <v>1.436461730157254</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.451007343725988</v>
@@ -8911,7 +8761,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.457363342907958</v>
+        <v>1.425639693419339</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.576384800720756</v>
@@ -9000,7 +8850,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.485197665131803</v>
+        <v>1.448182931564768</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.500657787686111</v>
@@ -9089,7 +8939,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.494523397247727</v>
+        <v>1.45864608118096</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.493622292686624</v>
@@ -9178,7 +9028,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.484176893845256</v>
+        <v>1.4486975221487</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.335252408617901</v>
@@ -9267,7 +9117,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.523371738130249</v>
+        <v>1.485181653274044</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.354252063155118</v>
@@ -9356,7 +9206,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.529881757863603</v>
+        <v>1.493736849984616</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.405986910254135</v>
@@ -9445,7 +9295,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.524194317546763</v>
+        <v>1.489476210890426</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.365953782555112</v>
@@ -9534,7 +9384,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.512907705571626</v>
+        <v>1.480310328164066</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.452696051813801</v>
@@ -9623,7 +9473,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.506533246346567</v>
+        <v>1.471354982397138</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.446869985079233</v>
@@ -9712,7 +9562,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.506411782913335</v>
+        <v>1.469257533270626</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.426058968367745</v>
@@ -9801,7 +9651,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.526344797632659</v>
+        <v>1.482808330559871</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.654016285300393</v>
@@ -9890,7 +9740,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.503710870133366</v>
+        <v>1.467415321859296</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.462066975382992</v>
@@ -9979,7 +9829,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.510640275503062</v>
+        <v>1.477440623201335</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.32045239858988</v>
@@ -10068,7 +9918,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.511463068894777</v>
+        <v>1.48117345343646</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.347162600293836</v>
@@ -10157,7 +10007,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.533925826062646</v>
+        <v>1.495715960370719</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.268296330352642</v>
@@ -10246,7 +10096,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.540346888201388</v>
+        <v>1.499682509374386</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.307428977947355</v>
@@ -10335,7 +10185,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.51767549817325</v>
+        <v>1.480747676229016</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.410801449757555</v>
@@ -10424,7 +10274,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.519536936183402</v>
+        <v>1.48430977181768</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.316292326424792</v>
@@ -10513,7 +10363,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.521437566376237</v>
+        <v>1.485654365269791</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.408123863957084</v>
@@ -10602,7 +10452,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.526320891276844</v>
+        <v>1.488331463214877</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.376879861206284</v>
@@ -10691,7 +10541,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.522915251998274</v>
+        <v>1.48481655151825</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.333105060966409</v>
@@ -10780,7 +10630,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.487276176304891</v>
+        <v>1.458636132489978</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.451140925222272</v>
@@ -10869,7 +10719,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.494404053114974</v>
+        <v>1.462689653417707</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.410968624518427</v>
@@ -10958,7 +10808,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.496386598278791</v>
+        <v>1.466277092165175</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.551911047018727</v>
@@ -11047,7 +10897,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.502739506087195</v>
+        <v>1.475051636223628</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.44336967343709</v>
@@ -11136,7 +10986,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.49716477339601</v>
+        <v>1.471153111829492</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.431218546785363</v>
@@ -11225,7 +11075,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.529434452354084</v>
+        <v>1.49596476631105</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.597037417202212</v>
@@ -11314,7 +11164,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.5011106162621</v>
+        <v>1.473543622235268</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.421740984077624</v>
@@ -11403,7 +11253,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.502944453291049</v>
+        <v>1.473985617664572</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.531319299906383</v>
@@ -11492,7 +11342,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.498087878341434</v>
+        <v>1.472268683964779</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.531220342055651</v>
@@ -11581,7 +11431,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.49192455740657</v>
+        <v>1.470949166996949</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.61797990963378</v>
@@ -11670,7 +11520,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.516070504277917</v>
+        <v>1.493990246851081</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.457107454567887</v>
@@ -11759,7 +11609,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.51871487498323</v>
+        <v>1.490499106504347</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.476569398079326</v>
@@ -11848,7 +11698,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.519384634521211</v>
+        <v>1.486548684280471</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.426736739945242</v>
@@ -11937,7 +11787,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.522103503945494</v>
+        <v>1.490666300576634</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.343507036878911</v>
@@ -12026,7 +11876,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.51816750774907</v>
+        <v>1.485037304207309</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.63768079339914</v>
@@ -12115,7 +11965,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.559247051397443</v>
+        <v>1.515445285932723</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.545992292542649</v>
@@ -12204,7 +12054,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.562571619773312</v>
+        <v>1.521315282180813</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.47676141415007</v>
@@ -12293,7 +12143,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.565980674471291</v>
+        <v>1.526402665402866</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.616620866529842</v>
@@ -12382,7 +12232,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.569625737977911</v>
+        <v>1.530279298721835</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.396452328262785</v>
@@ -12471,7 +12321,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.535826602719691</v>
+        <v>1.504450823469653</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.354726871713128</v>
@@ -12560,7 +12410,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.540006383272785</v>
+        <v>1.509453665219909</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.473609545593198</v>
@@ -12649,7 +12499,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.56713297511616</v>
+        <v>1.530192856211914</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.508204564274668</v>
@@ -12738,7 +12588,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.564050053573833</v>
+        <v>1.52595130909036</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.525138993003609</v>
@@ -12827,7 +12677,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.566219360654543</v>
+        <v>1.524850064841511</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.364875078404336</v>
@@ -12916,7 +12766,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.569656133141615</v>
+        <v>1.523008265031994</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.380756238889587</v>
@@ -13005,7 +12855,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.572277405643031</v>
+        <v>1.521643367677541</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.4577662875408</v>
@@ -13094,7 +12944,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.565520626451341</v>
+        <v>1.524396735276092</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.422760140859426</v>
@@ -13183,7 +13033,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.527889027631864</v>
+        <v>1.490726524145899</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.385266930869788</v>
@@ -13272,7 +13122,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.507917725550296</v>
+        <v>1.475364870566088</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.449509086427803</v>
@@ -13361,7 +13211,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.50487885211778</v>
+        <v>1.470420213863185</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.338773985802647</v>
@@ -13647,7 +13497,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.557640016381966</v>
+        <v>1.501108589318689</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.271726967049757</v>
@@ -13736,7 +13586,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.560542512155646</v>
+        <v>1.501340897798879</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.165720746085502</v>
@@ -13825,7 +13675,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.571159943956578</v>
+        <v>1.501499522922743</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.938418832855279</v>
@@ -13914,7 +13764,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.55918844184081</v>
+        <v>1.494663698302099</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.054391704373266</v>
@@ -14003,7 +13853,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.556960678232968</v>
+        <v>1.48780860083695</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.086003437303469</v>
@@ -14092,7 +13942,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.560837769078717</v>
+        <v>1.491612424552086</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.029849721556266</v>
@@ -14181,7 +14031,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.561768231333197</v>
+        <v>1.497067769059362</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.048830256567033</v>
@@ -14270,7 +14120,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.557864999001635</v>
+        <v>1.491564938685057</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.807316601034477</v>
@@ -14359,7 +14209,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.552970918095487</v>
+        <v>1.489703368169559</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.195812900731029</v>
@@ -14448,7 +14298,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.557190043143329</v>
+        <v>1.493336133994445</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.026174684025406</v>
@@ -14537,7 +14387,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.548624552433312</v>
+        <v>1.491263242966582</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.825155656360856</v>
@@ -14626,7 +14476,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.534341470375312</v>
+        <v>1.477282131842962</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.167892227212117</v>
@@ -14715,7 +14565,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.529839215935307</v>
+        <v>1.475860539288904</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.195374760960675</v>
@@ -14804,7 +14654,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.538184703827518</v>
+        <v>1.483991479478199</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.024555797336268</v>
@@ -14893,7 +14743,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.530870221529175</v>
+        <v>1.482937692237447</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.900982128795145</v>
@@ -14982,7 +14832,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.527365457487553</v>
+        <v>1.482580297070691</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.2442469897618</v>
@@ -15071,7 +14921,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.516293663108834</v>
+        <v>1.471718360564453</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.892217839928313</v>
@@ -15160,7 +15010,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.524085456169039</v>
+        <v>1.479302505934037</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.681079607302561</v>
@@ -15249,7 +15099,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.52977993297271</v>
+        <v>1.489705828025705</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.084176705692067</v>
@@ -15338,7 +15188,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.532293247410226</v>
+        <v>1.490894141935462</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.168219720949943</v>
@@ -15427,7 +15277,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.519804874052739</v>
+        <v>1.478745299464307</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.030493697940859</v>
@@ -15516,7 +15366,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.513924984943005</v>
+        <v>1.475419565480385</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.666154451387063</v>
@@ -15605,7 +15455,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.512155057493983</v>
+        <v>1.473073076191223</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.043591905588131</v>
@@ -15694,7 +15544,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.503498043791104</v>
+        <v>1.47142900667486</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.928442125915971</v>
@@ -15783,7 +15633,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.483821614936643</v>
+        <v>1.459206225556542</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.843075647982391</v>
@@ -15872,7 +15722,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.473913946210236</v>
+        <v>1.451312305206785</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.596296234249674</v>
@@ -15961,7 +15811,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.493531190992849</v>
+        <v>1.464333100828566</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.846755183441826</v>
@@ -16050,7 +15900,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.490420470126531</v>
+        <v>1.455895479587779</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.847374293132653</v>
@@ -16139,7 +15989,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.489247834253542</v>
+        <v>1.451318607150261</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.815376657992697</v>
@@ -16228,7 +16078,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.500138441535239</v>
+        <v>1.465926178359169</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.726573754087448</v>
@@ -16317,7 +16167,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.500389566724335</v>
+        <v>1.469012534748344</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.860039136016301</v>
@@ -16406,7 +16256,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.504906464814057</v>
+        <v>1.472290693993538</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.81345762263817</v>
@@ -16495,7 +16345,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.500610737656159</v>
+        <v>1.463971023795226</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.83764186987132</v>
@@ -16584,7 +16434,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.505861510362403</v>
+        <v>1.460208327600322</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.621238687888074</v>
@@ -16673,7 +16523,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.495553273173845</v>
+        <v>1.45399456163432</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.694150273485326</v>
@@ -16762,7 +16612,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.49691055953076</v>
+        <v>1.450764079917356</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.69249392534787</v>
@@ -16851,7 +16701,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.502166080958401</v>
+        <v>1.455019580795381</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.667743788788636</v>
@@ -16940,7 +16790,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.505138877459118</v>
+        <v>1.456403125416747</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.428948209731686</v>
@@ -17029,7 +16879,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.488434067303081</v>
+        <v>1.447557618019261</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.765711987644802</v>
@@ -17118,7 +16968,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.512524942107483</v>
+        <v>1.466268914325279</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.797318981269598</v>
@@ -17207,7 +17057,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522142609920854</v>
+        <v>1.475580425459435</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.734285202529769</v>
@@ -17296,7 +17146,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.519424470596571</v>
+        <v>1.486172982392796</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.645471876165095</v>
@@ -17385,7 +17235,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.52812563806526</v>
+        <v>1.49443066212963</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.813186847446541</v>
@@ -17474,7 +17324,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.535714940997828</v>
+        <v>1.504286249140598</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.777305108044338</v>
@@ -17563,7 +17413,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.551082582117395</v>
+        <v>1.519432222668042</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.660117884191637</v>
@@ -17652,7 +17502,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.568093414817954</v>
+        <v>1.534112223998878</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.689620027999709</v>
@@ -17741,7 +17591,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.570708647505196</v>
+        <v>1.54200814440644</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.941618779332027</v>
@@ -17830,7 +17680,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.568317450380186</v>
+        <v>1.544558007642737</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.810100437153051</v>
@@ -17919,7 +17769,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.567168306537765</v>
+        <v>1.548120190563527</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.938002077283568</v>
@@ -18008,7 +17858,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.579215121336045</v>
+        <v>1.562141929376754</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.907440962722967</v>
@@ -18097,7 +17947,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.57646274262681</v>
+        <v>1.560702969581068</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.815163039749423</v>
@@ -18186,7 +18036,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.574528824197694</v>
+        <v>1.557394554342103</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.987157870457683</v>
@@ -18275,7 +18125,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.578344296993694</v>
+        <v>1.562368136931992</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.92724681955447</v>
@@ -18364,7 +18214,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.605148312516335</v>
+        <v>1.578929573064916</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.396488633504212</v>
@@ -18453,7 +18303,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.596767501936373</v>
+        <v>1.574882383774466</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.03761775543065</v>
@@ -18542,7 +18392,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.606457034671489</v>
+        <v>1.580739898070157</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.322561471786158</v>
@@ -18631,7 +18481,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.603358556553378</v>
+        <v>1.57536658748778</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.220974351512847</v>
@@ -18720,7 +18570,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.602385850846366</v>
+        <v>1.574481596345673</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.708919819759042</v>
@@ -18809,7 +18659,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.59800960413598</v>
+        <v>1.56770147360978</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.858162065785021</v>
@@ -18898,7 +18748,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.579625777384147</v>
+        <v>1.553254542654645</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.16210015916412</v>
@@ -18987,7 +18837,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.560458401480602</v>
+        <v>1.532467723673424</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.045939038811984</v>
@@ -19076,7 +18926,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.560398360492939</v>
+        <v>1.528301145556199</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.292584576177935</v>
@@ -19165,7 +19015,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.569956884246518</v>
+        <v>1.536654760810263</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.934876394496817</v>
@@ -19254,7 +19104,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.563365737104752</v>
+        <v>1.529872559572559</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.147206012457294</v>
@@ -19343,7 +19193,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.544665083242966</v>
+        <v>1.512153966775948</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.242006753710259</v>
@@ -19432,7 +19282,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.541871954829275</v>
+        <v>1.511095118640182</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.239213807649273</v>
@@ -19521,7 +19371,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.537129119976546</v>
+        <v>1.51465050376223</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.963717626520792</v>
@@ -19610,7 +19460,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.534480471895934</v>
+        <v>1.509832367953709</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.894033016180203</v>
@@ -19896,7 +19746,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.515868293064263</v>
+        <v>1.455712585779585</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.947661344198078</v>
@@ -19985,7 +19835,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.518605731834882</v>
+        <v>1.453473744230386</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.711968102915424</v>
@@ -20074,7 +19924,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.542760664364555</v>
+        <v>1.47177197789659</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.916532615508574</v>
@@ -20163,7 +20013,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.526123897431223</v>
+        <v>1.456595558999838</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.991032443111681</v>
@@ -20252,7 +20102,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.514423906046166</v>
+        <v>1.44694569274275</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.901477581781903</v>
@@ -20341,7 +20191,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.516676886732341</v>
+        <v>1.448291540987914</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.745638091446907</v>
@@ -20430,7 +20280,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.516560652952948</v>
+        <v>1.451054494302466</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.926415650514869</v>
@@ -20519,7 +20369,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.507981174487612</v>
+        <v>1.443169812147512</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.989681321131674</v>
@@ -20608,7 +20458,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.514091004692406</v>
+        <v>1.446726240234413</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.710120798525299</v>
@@ -20697,7 +20547,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.527966688760703</v>
+        <v>1.461675725557205</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.91998290592636</v>
@@ -20786,7 +20636,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.534863197024949</v>
+        <v>1.465684779393217</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.978403824804106</v>
@@ -20875,7 +20725,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.536950169895868</v>
+        <v>1.470510357478066</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.059641972027072</v>
@@ -20964,7 +20814,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.536712056181765</v>
+        <v>1.46919052021856</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.935193568419056</v>
@@ -21053,7 +20903,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.545217923328831</v>
+        <v>1.477921899629832</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.626505643499937</v>
@@ -21142,7 +20992,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.555378317878898</v>
+        <v>1.498358246111099</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.895313578390432</v>
@@ -21231,7 +21081,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.554974398206291</v>
+        <v>1.503443307442291</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.141507109231234</v>
@@ -21320,7 +21170,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.548514337115936</v>
+        <v>1.500720205806141</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.310314528194671</v>
@@ -21409,7 +21259,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.548770242419713</v>
+        <v>1.499573302423322</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.875975483436541</v>
@@ -21498,7 +21348,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.564913482408907</v>
+        <v>1.514158122886447</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.377477290371841</v>
@@ -21587,7 +21437,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.57097859709774</v>
+        <v>1.513548389420547</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.32093406105433</v>
@@ -21676,7 +21526,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.573685510927568</v>
+        <v>1.514631862049997</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.898388034562498</v>
@@ -21765,7 +21615,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575579980557663</v>
+        <v>1.514364709863911</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.348106840387607</v>
@@ -21854,7 +21704,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.578387085729352</v>
+        <v>1.520801797741933</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.206577663301803</v>
@@ -21943,7 +21793,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.578198847792229</v>
+        <v>1.519722737703731</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.953507922844837</v>
@@ -22032,7 +21882,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577897879011313</v>
+        <v>1.520975010044076</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.250567521222896</v>
@@ -22121,7 +21971,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.571511831384601</v>
+        <v>1.512344696584438</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.827884427932543</v>
@@ -22210,7 +22060,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.583442923068627</v>
+        <v>1.527156388368441</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.242045388603694</v>
@@ -22299,7 +22149,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.579315588290378</v>
+        <v>1.521378253013346</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.86033834947097</v>
@@ -22388,7 +22238,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574862818545396</v>
+        <v>1.519913907316585</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.10559224968891</v>
@@ -22477,7 +22327,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.576311651684771</v>
+        <v>1.519420583543113</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.084458703402216</v>
@@ -22566,7 +22416,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.571203697956331</v>
+        <v>1.517821661639961</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.117513550684879</v>
@@ -22655,7 +22505,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.580354753985965</v>
+        <v>1.522647119962617</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.978587634392725</v>
@@ -22744,7 +22594,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.56761236063053</v>
+        <v>1.509641068468339</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.111959161295972</v>
@@ -22833,7 +22683,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.555821915106743</v>
+        <v>1.502159487634974</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.059426765540902</v>
@@ -22922,7 +22772,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.560142322468665</v>
+        <v>1.508049626751735</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.687247451241168</v>
@@ -23011,7 +22861,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.552514071184078</v>
+        <v>1.498719820985977</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.830107040852659</v>
@@ -23100,7 +22950,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.553795076609793</v>
+        <v>1.498564930049141</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.127010013885417</v>
@@ -23189,7 +23039,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.541419316637635</v>
+        <v>1.482694852173946</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.842377989100318</v>
@@ -23278,7 +23128,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530751706865547</v>
+        <v>1.478742681516022</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.059016307286475</v>
@@ -23367,7 +23217,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.525021668693756</v>
+        <v>1.470897002848914</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.867872120723463</v>
@@ -23456,7 +23306,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.532885010567907</v>
+        <v>1.48029894873301</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.710948117260535</v>
@@ -23545,7 +23395,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.538591035039625</v>
+        <v>1.483118142056283</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.57511139888634</v>
@@ -23634,7 +23484,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.540091468477347</v>
+        <v>1.491654307954932</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.159850337459638</v>
@@ -23723,7 +23573,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.549123368845871</v>
+        <v>1.497634933838681</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.831905909851791</v>
@@ -23812,7 +23662,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.53697041889224</v>
+        <v>1.489949078942328</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.049949422129347</v>
@@ -23901,7 +23751,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.544841698571534</v>
+        <v>1.493257504134796</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.843520389391145</v>
@@ -23990,7 +23840,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.540712296280123</v>
+        <v>1.493948195065518</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.053406373502221</v>
@@ -24079,7 +23929,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.546326195616739</v>
+        <v>1.503653683101151</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.959321888337177</v>
@@ -24168,7 +24018,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.55394045484949</v>
+        <v>1.510000226993222</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.048321803271027</v>
@@ -24257,7 +24107,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.556672277609314</v>
+        <v>1.517225465094212</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.954620625209758</v>
@@ -24346,7 +24196,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.562925019142388</v>
+        <v>1.527796004949414</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.219890248052184</v>
@@ -24435,7 +24285,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.561199114003819</v>
+        <v>1.526280041609333</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.761297713278701</v>
@@ -24524,7 +24374,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.572049284440972</v>
+        <v>1.539511707481765</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.061875938525275</v>
@@ -24613,7 +24463,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.596436005267293</v>
+        <v>1.552080596603733</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.184523773232236</v>
@@ -24702,7 +24552,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.595171918596349</v>
+        <v>1.554319475379164</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.308300378140079</v>
@@ -24791,7 +24641,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.598399161144412</v>
+        <v>1.558246614491279</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.253328864576551</v>
@@ -24880,7 +24730,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.5986378891672</v>
+        <v>1.559880063298876</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.926717036913725</v>
@@ -24969,7 +24819,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.584789037327423</v>
+        <v>1.550412132202385</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.360496751556378</v>
@@ -25058,7 +24908,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.585248859837236</v>
+        <v>1.551430710439969</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.846267458275091</v>
@@ -25147,7 +24997,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.604857369504783</v>
+        <v>1.563417475425292</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.335506526289235</v>
@@ -25236,7 +25086,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.593937793297638</v>
+        <v>1.554678872584072</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.440623115940622</v>
@@ -25325,7 +25175,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.587082349376947</v>
+        <v>1.54391563017209</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.140808916320461</v>
@@ -25414,7 +25264,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.589059588577778</v>
+        <v>1.541352159070829</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.135658088880958</v>
@@ -25503,7 +25353,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.595481763242669</v>
+        <v>1.548848842497917</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.312882361632016</v>
@@ -25592,7 +25442,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.582410917896626</v>
+        <v>1.531862386471073</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.108767526370931</v>
@@ -25681,7 +25531,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.573769539734499</v>
+        <v>1.524614357751034</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.876022695864364</v>
@@ -25770,7 +25620,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.560500069891278</v>
+        <v>1.515956888080082</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.893074205711258</v>
@@ -25859,7 +25709,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.551841832692568</v>
+        <v>1.510640569013041</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.892982979722562</v>
@@ -26145,7 +25995,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.532918851924164</v>
+        <v>1.488973207607252</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.261220207325316</v>
@@ -26234,7 +26084,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.542327722525875</v>
+        <v>1.490222679852153</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.853479328239298</v>
@@ -26323,7 +26173,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.553229163088727</v>
+        <v>1.503080435870624</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.062936570977995</v>
@@ -26412,7 +26262,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.542409983457474</v>
+        <v>1.491999774957651</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.133061633814909</v>
@@ -26501,7 +26351,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.541987286684634</v>
+        <v>1.492161615356216</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.027088260325741</v>
@@ -26590,7 +26440,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.5390225040831</v>
+        <v>1.492071843852841</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.001341095110718</v>
@@ -26679,7 +26529,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.541940522818282</v>
+        <v>1.497765837818281</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.137493296295049</v>
@@ -26768,7 +26618,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.536674892562244</v>
+        <v>1.498061089562085</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.042904320167599</v>
@@ -26857,7 +26707,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.538728324700879</v>
+        <v>1.496201993689905</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.946843971294243</v>
@@ -26946,7 +26796,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.549031902459795</v>
+        <v>1.508175015096128</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.984462827228748</v>
@@ -27035,7 +26885,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.550067848873461</v>
+        <v>1.514712197094645</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.1310757402796</v>
@@ -27124,7 +26974,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.552065388150411</v>
+        <v>1.511280138009568</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.865118627434399</v>
@@ -27213,7 +27063,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.559476854489024</v>
+        <v>1.514417228475338</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.360761887646468</v>
@@ -27302,7 +27152,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558916587453354</v>
+        <v>1.519599553166459</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.772123668547561</v>
@@ -27391,7 +27241,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.550479453724781</v>
+        <v>1.516034319511127</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.446387451102432</v>
@@ -27480,7 +27330,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.555527310949975</v>
+        <v>1.522122415137129</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.009809670376226</v>
@@ -27569,7 +27419,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.558796584168588</v>
+        <v>1.527865411556154</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.923237144969892</v>
@@ -27658,7 +27508,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549910014978355</v>
+        <v>1.519577580159748</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.662623357421221</v>
@@ -27747,7 +27597,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.554039266664491</v>
+        <v>1.516841258011687</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.224221722400268</v>
@@ -27836,7 +27686,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.556677756432632</v>
+        <v>1.522115044828041</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.457144506481927</v>
@@ -27925,7 +27775,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559372719562343</v>
+        <v>1.519812444351887</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.381755612952169</v>
@@ -28014,7 +27864,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.557492830982933</v>
+        <v>1.512707408796491</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.118984138644443</v>
@@ -28103,7 +27953,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.551767520504337</v>
+        <v>1.507880745430623</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.753040886788706</v>
@@ -28192,7 +28042,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.551940161614826</v>
+        <v>1.511459215535791</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.150492766358767</v>
@@ -28281,7 +28131,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.548593867107409</v>
+        <v>1.507933659590419</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.185724056715707</v>
@@ -28370,7 +28220,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.544188333631741</v>
+        <v>1.50559759840256</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.181170686902085</v>
@@ -28459,7 +28309,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.546531513585255</v>
+        <v>1.508640934419239</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.703153927467564</v>
@@ -28548,7 +28398,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.53797518563145</v>
+        <v>1.499466019283238</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.820587159967716</v>
@@ -28637,7 +28487,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54379406217619</v>
+        <v>1.498249501391929</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.744904437531714</v>
@@ -28726,7 +28576,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.544106679471656</v>
+        <v>1.4936195458295</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.661894617036626</v>
@@ -28815,7 +28665,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.545439473899707</v>
+        <v>1.496181952550441</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.849881780769314</v>
@@ -28904,7 +28754,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.538703021874681</v>
+        <v>1.489672979555841</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.739866546391415</v>
@@ -28993,7 +28843,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.539385912664776</v>
+        <v>1.487241712709243</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.691934904210698</v>
@@ -29082,7 +28932,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535080582432539</v>
+        <v>1.481859258263572</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.755332464699823</v>
@@ -29171,7 +29021,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.530201064764971</v>
+        <v>1.47314966760437</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.939693376369987</v>
@@ -29260,7 +29110,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.530967103281995</v>
+        <v>1.475609057108956</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.807829809639661</v>
@@ -29349,7 +29199,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.532231392503069</v>
+        <v>1.479641868327238</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.770895677764096</v>
@@ -29438,7 +29288,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.541303733906616</v>
+        <v>1.485776680155179</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.841881521471935</v>
@@ -29527,7 +29377,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531551491273169</v>
+        <v>1.480499646536383</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.64449841910244</v>
@@ -29616,7 +29466,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.544674618921572</v>
+        <v>1.49507445796279</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.587168052584372</v>
@@ -29705,7 +29555,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.549769163036479</v>
+        <v>1.497025583320471</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.648255724084127</v>
@@ -29794,7 +29644,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.557465838187799</v>
+        <v>1.504546199088449</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.028380049013004</v>
@@ -29883,7 +29733,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.556114509215453</v>
+        <v>1.504050463807178</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.181250852385735</v>
@@ -29972,7 +29822,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.55909644591778</v>
+        <v>1.507495564119274</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.094953197088956</v>
@@ -30061,7 +29911,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.566077588779183</v>
+        <v>1.515120592733779</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.118057808000627</v>
@@ -30150,7 +30000,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.574560615991869</v>
+        <v>1.52226445487073</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.270039060829933</v>
@@ -30239,7 +30089,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569283989090051</v>
+        <v>1.518365958775164</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.187476002350284</v>
@@ -30328,7 +30178,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.577536288727856</v>
+        <v>1.524239970760246</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.310689180790857</v>
@@ -30417,7 +30267,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.583331985885272</v>
+        <v>1.532535800423722</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.999451786326296</v>
@@ -30506,7 +30356,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.570571855418515</v>
+        <v>1.525864275824546</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.369799366732269</v>
@@ -30595,7 +30445,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.570959791222379</v>
+        <v>1.521927227545246</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.069660925559562</v>
@@ -30684,7 +30534,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.569786553199355</v>
+        <v>1.519338604961853</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.756114280943583</v>
@@ -30773,7 +30623,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.561377211319141</v>
+        <v>1.513308967071038</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.145882294692059</v>
@@ -30862,7 +30712,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.565356034322242</v>
+        <v>1.513259313697225</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.972224936784637</v>
@@ -30951,7 +30801,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.553709884146931</v>
+        <v>1.495265837282554</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.377238794494089</v>
@@ -31040,7 +30890,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.551768838323671</v>
+        <v>1.491517790213904</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.859265171353067</v>
@@ -31129,7 +30979,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.555765497534166</v>
+        <v>1.493481812884298</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.942093936865902</v>
@@ -31218,7 +31068,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.560673313786938</v>
+        <v>1.500376864952155</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.823917941880202</v>
@@ -31307,7 +31157,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.556409166512448</v>
+        <v>1.49768954635307</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.995165993802514</v>
@@ -31396,7 +31246,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.557232396572661</v>
+        <v>1.500572556192267</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.770620932507097</v>
@@ -31485,7 +31335,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.553848596900946</v>
+        <v>1.493491068727343</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.22698482773932</v>
@@ -31574,7 +31424,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.555109950693419</v>
+        <v>1.497019959510927</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.213442127563745</v>
@@ -31663,7 +31513,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.546950421839907</v>
+        <v>1.497632183578045</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.062250680062462</v>
@@ -31752,7 +31602,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.546101680898788</v>
+        <v>1.491543696811053</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.939826951729935</v>
@@ -31841,7 +31691,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.559033624411135</v>
+        <v>1.501265740573004</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.010070117083012</v>
@@ -31930,7 +31780,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.559860968096542</v>
+        <v>1.504675084252949</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.041664594895744</v>
@@ -32019,7 +31869,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.548165324480808</v>
+        <v>1.495815701691816</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.189179144546785</v>
@@ -32108,7 +31958,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.547998763686691</v>
+        <v>1.493372837597149</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.159124759348912</v>
@@ -32394,7 +32244,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.617365799409438</v>
+        <v>1.590757467772603</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.093843414847865</v>
@@ -32483,7 +32333,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.618757927435959</v>
+        <v>1.592673852017029</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.038725042524542</v>
@@ -32572,7 +32422,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.635348481834395</v>
+        <v>1.605186320144264</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.008502406304486</v>
@@ -32661,7 +32511,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.62531261148439</v>
+        <v>1.590778173858604</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.80864119550485</v>
@@ -32750,7 +32600,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.622977313635987</v>
+        <v>1.585400678884181</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.867462235217176</v>
@@ -32839,7 +32689,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.619124038962391</v>
+        <v>1.576351774870686</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.122500544360254</v>
@@ -32928,7 +32778,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.622904202732159</v>
+        <v>1.578319762763409</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.986502830739597</v>
@@ -33017,7 +32867,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.620457176709722</v>
+        <v>1.571802986357816</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.087008506064582</v>
@@ -33106,7 +32956,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.614872161820062</v>
+        <v>1.564285662085192</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.242435119412333</v>
@@ -33195,7 +33045,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605114408912617</v>
+        <v>1.558608990251323</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.248982965051325</v>
@@ -33284,7 +33134,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600262175300259</v>
+        <v>1.550262155812276</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.738678190995427</v>
@@ -33373,7 +33223,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.606779918669396</v>
+        <v>1.552427510284517</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.180634181095307</v>
@@ -33462,7 +33312,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.579565961369364</v>
+        <v>1.530451221389378</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.121635383519533</v>
@@ -33551,7 +33401,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.594506447501983</v>
+        <v>1.541893463503475</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.213124341567303</v>
@@ -33640,7 +33490,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.591441756286412</v>
+        <v>1.541098764715021</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.849578402420907</v>
@@ -33729,7 +33579,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.584296977812905</v>
+        <v>1.532031995554622</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.141938035347891</v>
@@ -33818,7 +33668,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.591373476063007</v>
+        <v>1.536697634320336</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.976570789028001</v>
@@ -33907,7 +33757,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.56909063531672</v>
+        <v>1.522455902954706</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.633341593684745</v>
@@ -33996,7 +33846,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.582716713635223</v>
+        <v>1.542575627056143</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.905031845198573</v>
@@ -34085,7 +33935,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580571984904212</v>
+        <v>1.537739435493813</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.732432318215696</v>
@@ -34174,7 +34024,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.574234520961961</v>
+        <v>1.537526696200099</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.837670581633453</v>
@@ -34263,7 +34113,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.55298163555122</v>
+        <v>1.520160992482459</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.86830691719305</v>
@@ -34352,7 +34202,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548775121295998</v>
+        <v>1.518004378604415</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.770945473148387</v>
@@ -34441,7 +34291,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.540726642681403</v>
+        <v>1.51328841077063</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.742069213396049</v>
@@ -34530,7 +34380,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.536345069627563</v>
+        <v>1.510372468310244</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.859599520950189</v>
@@ -34619,7 +34469,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.528040491689413</v>
+        <v>1.510086779102205</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.004966974186012</v>
@@ -34708,7 +34558,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.530339765071062</v>
+        <v>1.510455276895027</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.635332123995775</v>
@@ -34797,7 +34647,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.537977215866559</v>
+        <v>1.516484295051713</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.012873310042747</v>
@@ -34886,7 +34736,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.529138650709694</v>
+        <v>1.510579698806174</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.890156154593425</v>
@@ -34975,7 +34825,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.535011972755769</v>
+        <v>1.518106761668315</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.975104048777998</v>
@@ -35064,7 +34914,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.535905700182431</v>
+        <v>1.514033187086584</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.889135082366109</v>
@@ -35153,7 +35003,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.532645395408496</v>
+        <v>1.506013027822779</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.948904538571278</v>
@@ -35242,7 +35092,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.540225465661814</v>
+        <v>1.509285547766546</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.086626871261843</v>
@@ -35331,7 +35181,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.532061473578173</v>
+        <v>1.499676721472597</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.672336749716151</v>
@@ -35420,7 +35270,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.522033483570884</v>
+        <v>1.491590204099005</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.072404178484411</v>
@@ -35509,7 +35359,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.523216909886548</v>
+        <v>1.491330038769633</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.200099954680217</v>
@@ -35598,7 +35448,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.531293766551783</v>
+        <v>1.495943945708065</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.906810821644109</v>
@@ -35687,7 +35537,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.530639773146754</v>
+        <v>1.494780278065984</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.840264189751944</v>
@@ -35776,7 +35626,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530792740709374</v>
+        <v>1.493219970079329</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.03610456889749</v>
@@ -35865,7 +35715,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.531802343704924</v>
+        <v>1.501901263579999</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.6715867857808</v>
@@ -35954,7 +35804,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.551852929890383</v>
+        <v>1.518434361989554</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.777063721209</v>
@@ -36043,7 +35893,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549286696014204</v>
+        <v>1.525187350646904</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.491509723141042</v>
@@ -36132,7 +35982,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.559673460597896</v>
+        <v>1.539563350489822</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.687116450669317</v>
@@ -36221,7 +36071,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569991781789561</v>
+        <v>1.55333352744801</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.767564115742264</v>
@@ -36310,7 +36160,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.581876733421469</v>
+        <v>1.564471649460151</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.770250058472908</v>
@@ -36399,7 +36249,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.586438289067614</v>
+        <v>1.575612239041032</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.738196222134517</v>
@@ -36488,7 +36338,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.598105495132019</v>
+        <v>1.594063132239114</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.684409817089297</v>
@@ -36577,7 +36427,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.60843682479479</v>
+        <v>1.60425210449587</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.749436067603802</v>
@@ -36666,7 +36516,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610775143103463</v>
+        <v>1.607813733699303</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.688547773702484</v>
@@ -36755,7 +36605,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.615683345982486</v>
+        <v>1.610286335689266</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.900123384743257</v>
@@ -36844,7 +36694,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.629734086778785</v>
+        <v>1.624573711889815</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.765757228167818</v>
@@ -36933,7 +36783,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.637040042226969</v>
+        <v>1.631890559545919</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.808444962087663</v>
@@ -37022,7 +36872,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.635222781864228</v>
+        <v>1.633561232964899</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.817821365375658</v>
@@ -37111,7 +36961,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.651129842990508</v>
+        <v>1.649933765808281</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.647757840143061</v>
@@ -37200,7 +37050,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.660247231311029</v>
+        <v>1.656482538116944</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.881355801294018</v>
@@ -37289,7 +37139,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.650584401509148</v>
+        <v>1.648356862882806</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.832747273636922</v>
@@ -37378,7 +37228,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.665686620391923</v>
+        <v>1.662204806682371</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.873795867760937</v>
@@ -37467,7 +37317,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.659318191902575</v>
+        <v>1.652563866826411</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.526260870283037</v>
@@ -37556,7 +37406,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.664907029567353</v>
+        <v>1.652092940806168</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.160129754136267</v>
@@ -37645,7 +37495,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.65035709948276</v>
+        <v>1.642301982814233</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.693578666345225</v>
@@ -37734,7 +37584,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.645345267358667</v>
+        <v>1.637777569185808</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.360418803448611</v>
@@ -37823,7 +37673,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.637261059491459</v>
+        <v>1.628032011098379</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.170164562399814</v>
@@ -37912,7 +37762,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.632975953536351</v>
+        <v>1.623181992088625</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.118845667611614</v>
@@ -38001,7 +37851,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.636348794372198</v>
+        <v>1.622063431740228</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.324614149278197</v>
@@ -38090,7 +37940,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.642317348575523</v>
+        <v>1.629505679431188</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.15631407489085</v>
@@ -38179,7 +38029,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.628656587914642</v>
+        <v>1.613436178758483</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.15940377233005</v>
@@ -38268,7 +38118,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.624947928192993</v>
+        <v>1.613084876864633</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.935829416910266</v>
@@ -38357,7 +38207,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.611042495290693</v>
+        <v>1.599220005585641</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.175612616973001</v>
@@ -38643,7 +38493,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.39221294949738</v>
+        <v>1.368565054495321</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.263415187843107</v>
@@ -38732,7 +38582,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.423775943396328</v>
+        <v>1.396985521516617</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.047304915365827</v>
@@ -38821,7 +38671,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.437264259003596</v>
+        <v>1.411280461887764</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.272192851072411</v>
@@ -38910,7 +38760,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.396260991892884</v>
+        <v>1.372390785581462</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.330924013217344</v>
@@ -38999,7 +38849,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.396478705861462</v>
+        <v>1.370982185573465</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.358162422026383</v>
@@ -39088,7 +38938,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.398369079620117</v>
+        <v>1.369912854462069</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.223998291563505</v>
@@ -39177,7 +39027,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.38236707457817</v>
+        <v>1.347877216368119</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.306751381925502</v>
@@ -39266,7 +39116,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.358080925311424</v>
+        <v>1.332579638725928</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.223530708574147</v>
@@ -39355,7 +39205,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.368217879813016</v>
+        <v>1.337256921203565</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.269116408169679</v>
@@ -39444,7 +39294,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.394055739352122</v>
+        <v>1.35782219336424</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.355892756289765</v>
@@ -39533,7 +39383,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.404766116782241</v>
+        <v>1.362027149657558</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.119192697918443</v>
@@ -39622,7 +39472,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.41987892920968</v>
+        <v>1.375553073154748</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.194863995363015</v>
@@ -39711,7 +39561,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.411159135597018</v>
+        <v>1.370067020765376</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.208352300921593</v>
@@ -39800,7 +39650,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.438493667439515</v>
+        <v>1.389812127647904</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.074722515033451</v>
@@ -39889,7 +39739,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.43773724362009</v>
+        <v>1.39556921565889</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.362879533434999</v>
@@ -39978,7 +39828,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.431979169207872</v>
+        <v>1.39175494010396</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.286529779066255</v>
@@ -40067,7 +39917,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.40905073244727</v>
+        <v>1.372202062361497</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.356285429119252</v>
@@ -40156,7 +40006,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.415170529282601</v>
+        <v>1.376813287060178</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.366546505132008</v>
@@ -40245,7 +40095,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.447776104112051</v>
+        <v>1.404966812347303</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.376047895445092</v>
@@ -40334,7 +40184,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.443210359821017</v>
+        <v>1.400310314136876</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.235183538772999</v>
@@ -40423,7 +40273,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.431473720947554</v>
+        <v>1.393461589445489</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.270866873527817</v>
@@ -40512,7 +40362,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.475006815997363</v>
+        <v>1.432166398926026</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.140968652514504</v>
@@ -40601,7 +40451,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.47862573295055</v>
+        <v>1.439893579640448</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.427329430353538</v>
@@ -40690,7 +40540,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.478214143743425</v>
+        <v>1.441651797311482</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.35864653134231</v>
@@ -40779,7 +40629,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.467711571673146</v>
+        <v>1.433902655693619</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.455892991463914</v>
@@ -40868,7 +40718,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.461981443884399</v>
+        <v>1.431138631302132</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.531743668969526</v>
@@ -40957,7 +40807,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.463084738868529</v>
+        <v>1.436859024637724</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.332678274150806</v>
@@ -41046,7 +40896,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.485163186705263</v>
+        <v>1.456569222203463</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.341435678050099</v>
@@ -41135,7 +40985,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.455129133166157</v>
+        <v>1.432475056362116</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.351905570154359</v>
@@ -41224,7 +41074,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.454363641058404</v>
+        <v>1.425760151105948</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.364631466133507</v>
@@ -41313,7 +41163,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.458950441121907</v>
+        <v>1.42887977049366</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.321719925939588</v>
@@ -41402,7 +41252,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.484539692797043</v>
+        <v>1.448476052789447</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.12455936244705</v>
@@ -41491,7 +41341,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.489747643487259</v>
+        <v>1.452046421466197</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.142582464776531</v>
@@ -41580,7 +41430,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.459710708575666</v>
+        <v>1.424970545816582</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.377950571399603</v>
@@ -41669,7 +41519,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.45945468923752</v>
+        <v>1.425079940457108</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.183492701637284</v>
@@ -41758,7 +41608,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.469409719297303</v>
+        <v>1.433841005673577</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.193666184635644</v>
@@ -41847,7 +41697,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.475555291651086</v>
+        <v>1.433995540452594</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.245225710643953</v>
@@ -41936,7 +41786,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.467218272246021</v>
+        <v>1.428455726464585</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.241253783454177</v>
@@ -42025,7 +41875,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.428938301803583</v>
+        <v>1.402627673747708</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.317395374622913</v>
@@ -42114,7 +41964,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.434741043206919</v>
+        <v>1.411463241881626</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.408014422597484</v>
@@ -42203,7 +42053,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.434591898677748</v>
+        <v>1.410567089546246</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.407414498509019</v>
@@ -42292,7 +42142,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.421122039017474</v>
+        <v>1.400465707020502</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.465036003453923</v>
@@ -42381,7 +42231,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.420662934938888</v>
+        <v>1.392320713870789</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.362089290947038</v>
@@ -42470,7 +42320,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.448915932221365</v>
+        <v>1.416693496461987</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.337453105660783</v>
@@ -42559,7 +42409,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.429927058840281</v>
+        <v>1.406291058315595</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.252875562785587</v>
@@ -42648,7 +42498,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.423992346694703</v>
+        <v>1.400743083801516</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.344312932606221</v>
@@ -42737,7 +42587,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.415288085802089</v>
+        <v>1.396466202295459</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.30309414976524</v>
@@ -42826,7 +42676,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.408153537331446</v>
+        <v>1.392986186004002</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.365569778076066</v>
@@ -42915,7 +42765,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.430932150544603</v>
+        <v>1.413487791515786</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.283473069311278</v>
@@ -43004,7 +42854,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.429884803844265</v>
+        <v>1.411005915926502</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.376770952396695</v>
@@ -43093,7 +42943,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.426083120490927</v>
+        <v>1.405813723983109</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.309842354824692</v>
@@ -43182,7 +43032,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.420343516526889</v>
+        <v>1.403570691105541</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.275457566629888</v>
@@ -43271,7 +43121,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.423722848703227</v>
+        <v>1.405570486708548</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.456097238551653</v>
@@ -43360,7 +43210,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.471421623245511</v>
+        <v>1.443658769273808</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.491810810339125</v>
@@ -43449,7 +43299,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.471356826179218</v>
+        <v>1.440807384768629</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.329351994712537</v>
@@ -43538,7 +43388,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.48038452283786</v>
+        <v>1.448265412629861</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.37881726780638</v>
@@ -43627,7 +43477,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.496894489114005</v>
+        <v>1.459017210824213</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.361588416948321</v>
@@ -43716,7 +43566,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.45406654161634</v>
+        <v>1.430329931787391</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.22782518513131</v>
@@ -43805,7 +43655,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.455443162825333</v>
+        <v>1.435023441913854</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.462409007319949</v>
@@ -43894,7 +43744,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.481735551005811</v>
+        <v>1.455283837585288</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.513669316225141</v>
@@ -43983,7 +43833,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.49278557172666</v>
+        <v>1.46633662155803</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.463149944274827</v>
@@ -44072,7 +43922,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.492388155813434</v>
+        <v>1.462031259893529</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.344807953569806</v>
@@ -44161,7 +44011,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.493613473715796</v>
+        <v>1.46175380408986</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.325181865523611</v>
@@ -44250,7 +44100,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.495755051600376</v>
+        <v>1.46345082325221</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.525686418895459</v>
@@ -44339,7 +44189,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.500587683240936</v>
+        <v>1.473647930899225</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.313534347874743</v>
@@ -44428,7 +44278,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.470432377806512</v>
+        <v>1.44846425708516</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.212756694678794</v>
@@ -44517,7 +44367,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.466286567075015</v>
+        <v>1.444761929681765</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.386483333938667</v>
@@ -44606,7 +44456,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.459478269814104</v>
+        <v>1.438193965439581</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.330038528268142</v>
